--- a/results/Wareneingang_102024.xlsx
+++ b/results/Wareneingang_102024.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1800</v>
+        <v>4200</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -518,6 +518,65 @@
       <c r="H3" t="inlineStr">
         <is>
           <t>Teile und Zubehör für Puppen, nur Nachbildungen von Menschen darstellend</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>22029999</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Tschechien</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>600</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>4</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Waren der Lebensmittelindustrie; Getränke, alkoholhaltige Flüssigkeiten und Essig; Tabak und verarbeitete Tabakersatzstoffe</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Nichtalkoholhaltige Getränke, mit einem Gehalt an Milchfett von 2GHT oder mehr</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>85171300</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Tschechien</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="n">
+        <v>600</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>16</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Maschinen, Apparate, mechanische Geräte und elektrotechnische Waren, Teile davon; Tonaufnahme- oder Tonwiedergabegeräte, Fernseh-Bild- und -Tonaufzeichnungsgeräte oder Fernseh-Bild- und -Tonwiedergabegeräte, Teile und Zubehör für diese Geräte</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Smartphones</t>
         </is>
       </c>
     </row>

--- a/results/Wareneingang_102024.xlsx
+++ b/results/Wareneingang_102024.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>4200</v>
+        <v>7800</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -559,7 +559,6 @@
           <t>Tschechien</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
         <v>600</v>
       </c>
